--- a/Error logs sheet.xlsx
+++ b/Error logs sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marpa\AndroidStudioProjects\excelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2EBCAC-6C4C-4264-B4E1-3409FFB34A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB78BF9-E8C0-4BDF-82D7-9EF0F0551446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="167">
   <si>
     <t>Description</t>
   </si>
@@ -418,6 +418,114 @@
   </si>
   <si>
     <t>DetectionConfig.kt</t>
+  </si>
+  <si>
+    <t>State Persistence Issue</t>
+  </si>
+  <si>
+    <t>On app reopen, the UI toggle showed OFF even if the detection service was still running.</t>
+  </si>
+  <si>
+    <t>React state is lost on app closure; no sync with the native service status.</t>
+  </si>
+  <si>
+    <t>High - Caused user confusion and displayed an inaccurate UI state.</t>
+  </si>
+  <si>
+    <t>Used AsyncStorage for state persistence and synced the UI with native status on startup.</t>
+  </si>
+  <si>
+    <t>src/screens/ModifyTriggers.jsx, VoiceDetectionModule.kt</t>
+  </si>
+  <si>
+    <t>Unwanted Navigation on Toggle</t>
+  </si>
+  <si>
+    <t>Clicking the voice trigger card navigated to a non-existent VoiceSettingsScreen.</t>
+  </si>
+  <si>
+    <t>The card's onPress handler was incorrectly configured for the voice trigger.</t>
+  </si>
+  <si>
+    <t>Low - Unwanted navigation but did not break core functionality.</t>
+  </si>
+  <si>
+    <t>Disabled the onPress navigation for the voice trigger card.</t>
+  </si>
+  <si>
+    <t>src/screens/ModifyTriggers.jsx</t>
+  </si>
+  <si>
+    <t>Kotlin Compilation Error</t>
+  </si>
+  <si>
+    <t>Build failed with "Unresolved reference" for FLAG_ACTIVITY_SHOW_WHEN_LOCKED.</t>
+  </si>
+  <si>
+    <t>These flags are not directly accessible in the Intent class in newer Android versions.</t>
+  </si>
+  <si>
+    <t>High - The app would not build, blocking all testing.</t>
+  </si>
+  <si>
+    <t>Used the direct hex values for the flags (0x00080000, 0x00200000).</t>
+  </si>
+  <si>
+    <t>VoiceDetectionModule.kt</t>
+  </si>
+  <si>
+    <t>React Navigation setState Error</t>
+  </si>
+  <si>
+    <t>Console error: "Cannot update a component while rendering a different component."</t>
+  </si>
+  <si>
+    <t>Navigation was called synchronously during an event listener callback.</t>
+  </si>
+  <si>
+    <t>Medium - Caused error logs and potential navigation issues.</t>
+  </si>
+  <si>
+    <t>Wrapped the Maps() call in a setTimeout to defer it to the next render tick.</t>
+  </si>
+  <si>
+    <t>src/services/VoiceDetectionService.js</t>
+  </si>
+  <si>
+    <t>Background Activity Start Blocked</t>
+  </si>
+  <si>
+    <t>Android 10+ security restrictions blocked the app from starting an activity from the background.</t>
+  </si>
+  <si>
+    <t>The system logcat showed "allowBackgroundActivityStart: false".</t>
+  </si>
+  <si>
+    <t>Critical - The app would not launch from the background or when the screen was off.</t>
+  </si>
+  <si>
+    <t>Implemented a full-screen intent notification, the correct Android method for this use case.</t>
+  </si>
+  <si>
+    <t>NativeEventEmitter Warnings</t>
+  </si>
+  <si>
+    <t>Console warnings about NativeEventEmitter missing addListener method.</t>
+  </si>
+  <si>
+    <t>The native module doesn't implement optional listener methods.</t>
+  </si>
+  <si>
+    <t>Low - The warnings are cosmetic and do not affect functionality.</t>
+  </si>
+  <si>
+    <t>No fix was needed as the module works correctly; the warnings can be safely ignored.</t>
+  </si>
+  <si>
+    <t>Warning Only</t>
+  </si>
+  <si>
+    <t>tried to solve but failed.</t>
   </si>
 </sst>
 </file>
@@ -474,12 +582,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -762,25 +873,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" customWidth="1"/>
+    <col min="7" max="7" width="35.5546875" customWidth="1"/>
+    <col min="8" max="8" width="37.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -809,7 +920,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -838,7 +949,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -867,7 +978,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -896,7 +1007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -925,7 +1036,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -954,7 +1065,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -983,7 +1094,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1012,7 +1123,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1041,7 +1152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1070,7 +1181,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1099,7 +1210,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1128,7 +1239,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1157,7 +1268,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1186,7 +1297,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1215,7 +1326,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1244,7 +1355,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1273,7 +1384,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1302,7 +1413,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1331,73 +1442,283 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45948</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45948</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45949</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45949</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45949</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45949</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1408,7 +1729,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1419,7 +1740,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1430,7 +1751,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1441,7 +1762,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1452,7 +1773,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1463,7 +1784,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1474,7 +1795,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1485,7 +1806,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1496,7 +1817,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1507,7 +1828,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1518,7 +1839,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1529,7 +1850,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1540,7 +1861,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1551,7 +1872,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1562,7 +1883,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1573,7 +1894,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1584,7 +1905,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1595,7 +1916,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1606,7 +1927,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1617,7 +1938,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1628,7 +1949,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1639,7 +1960,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1650,7 +1971,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1661,7 +1982,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1672,7 +1993,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1683,7 +2004,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1694,7 +2015,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1705,7 +2026,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1716,7 +2037,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1727,7 +2048,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1738,7 +2059,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1749,7 +2070,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1760,7 +2081,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1771,7 +2092,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1782,7 +2103,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1793,7 +2114,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1804,7 +2125,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1815,7 +2136,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1826,7 +2147,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1837,7 +2158,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1848,7 +2169,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1859,7 +2180,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1870,7 +2191,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1881,7 +2202,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1892,7 +2213,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1903,7 +2224,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1914,7 +2235,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1925,7 +2246,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1936,7 +2257,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1947,7 +2268,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1958,7 +2279,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1969,7 +2290,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1980,7 +2301,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1991,7 +2312,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2002,7 +2323,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2013,7 +2334,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2024,7 +2345,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2035,7 +2356,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2046,7 +2367,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2057,7 +2378,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2068,7 +2389,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2079,7 +2400,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2090,7 +2411,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2101,7 +2422,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2112,7 +2433,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2123,7 +2444,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2134,7 +2455,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2145,7 +2466,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2156,7 +2477,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2167,7 +2488,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2178,7 +2499,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2189,7 +2510,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2200,7 +2521,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2211,7 +2532,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2222,7 +2543,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2233,7 +2554,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2244,7 +2565,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2255,7 +2576,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2266,7 +2587,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2277,7 +2598,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2288,7 +2609,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2299,7 +2620,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2310,7 +2631,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2321,7 +2642,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2332,7 +2653,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2343,7 +2664,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2354,7 +2675,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2365,7 +2686,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2376,7 +2697,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2387,7 +2708,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2398,7 +2719,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2409,7 +2730,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2420,7 +2741,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2431,7 +2752,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2442,7 +2763,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2453,7 +2774,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2464,7 +2785,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2475,7 +2796,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2486,7 +2807,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2497,7 +2818,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2508,7 +2829,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2519,7 +2840,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2530,7 +2851,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2541,7 +2862,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2552,7 +2873,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2563,7 +2884,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2574,7 +2895,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2585,7 +2906,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2596,7 +2917,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2607,7 +2928,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2618,7 +2939,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2629,7 +2950,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2640,7 +2961,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2651,7 +2972,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2662,7 +2983,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2673,7 +2994,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2684,7 +3005,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2695,7 +3016,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2706,7 +3027,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2717,7 +3038,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2728,7 +3049,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2739,7 +3060,7 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2750,7 +3071,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2761,7 +3082,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2772,7 +3093,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2783,7 +3104,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2794,7 +3115,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2805,7 +3126,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2816,7 +3137,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2827,7 +3148,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2838,7 +3159,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2849,7 +3170,7 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2860,7 +3181,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2871,7 +3192,7 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2882,7 +3203,7 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2893,7 +3214,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2904,7 +3225,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2915,7 +3236,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2926,7 +3247,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2937,7 +3258,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2948,7 +3269,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2959,7 +3280,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2970,7 +3291,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2981,7 +3302,7 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2992,7 +3313,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -3003,7 +3324,7 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -3014,7 +3335,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3025,7 +3346,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -3036,7 +3357,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -3047,7 +3368,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -3058,7 +3379,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -3069,7 +3390,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3080,7 +3401,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -3091,7 +3412,7 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -3102,7 +3423,7 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3113,7 +3434,7 @@
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -3124,7 +3445,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -3135,7 +3456,7 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -3146,7 +3467,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -3157,7 +3478,7 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -3168,7 +3489,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -3179,7 +3500,7 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -3190,7 +3511,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -3201,7 +3522,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -3212,7 +3533,7 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -3223,7 +3544,7 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -3234,7 +3555,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3245,7 +3566,7 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -3256,7 +3577,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -3267,7 +3588,7 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -3278,7 +3599,7 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3289,7 +3610,7 @@
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -3300,7 +3621,7 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -3311,7 +3632,7 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -3322,7 +3643,7 @@
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -3333,7 +3654,7 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -3344,7 +3665,7 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -3355,7 +3676,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -3366,7 +3687,7 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -3377,7 +3698,7 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -3388,7 +3709,7 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -3399,7 +3720,7 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -3410,7 +3731,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -3421,7 +3742,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -3432,7 +3753,7 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -3443,7 +3764,7 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -3454,7 +3775,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -3465,7 +3786,7 @@
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -3476,7 +3797,7 @@
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -3487,7 +3808,7 @@
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -3498,7 +3819,7 @@
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -3509,7 +3830,7 @@
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -3520,7 +3841,7 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -3531,7 +3852,7 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -3542,7 +3863,7 @@
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -3553,7 +3874,7 @@
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -3564,7 +3885,7 @@
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -3575,7 +3896,7 @@
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -3586,7 +3907,7 @@
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -3597,7 +3918,7 @@
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -3608,7 +3929,7 @@
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -3619,7 +3940,7 @@
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -3630,7 +3951,7 @@
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -3641,7 +3962,7 @@
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -3652,7 +3973,7 @@
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -3663,7 +3984,7 @@
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -3674,7 +3995,7 @@
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -3685,7 +4006,7 @@
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -3696,7 +4017,7 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -3707,7 +4028,7 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -3718,7 +4039,7 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -3729,7 +4050,7 @@
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -3740,7 +4061,7 @@
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -3751,7 +4072,7 @@
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -3762,7 +4083,7 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -3773,7 +4094,7 @@
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -3784,7 +4105,7 @@
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -3795,7 +4116,7 @@
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -3806,7 +4127,7 @@
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -3817,7 +4138,7 @@
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -3828,7 +4149,7 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -3839,7 +4160,7 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -3850,7 +4171,7 @@
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -3861,7 +4182,7 @@
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -3872,7 +4193,7 @@
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -3883,7 +4204,7 @@
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -3894,7 +4215,7 @@
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -3905,7 +4226,7 @@
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -3916,7 +4237,7 @@
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -3927,7 +4248,7 @@
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -3938,7 +4259,7 @@
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -3949,7 +4270,7 @@
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -3960,7 +4281,7 @@
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -3971,7 +4292,7 @@
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -3982,7 +4303,7 @@
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -3993,7 +4314,7 @@
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -4004,7 +4325,7 @@
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -4015,7 +4336,7 @@
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -4026,7 +4347,7 @@
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -4037,7 +4358,7 @@
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -4048,7 +4369,7 @@
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -4059,7 +4380,7 @@
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -4070,7 +4391,7 @@
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -4081,7 +4402,7 @@
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -4092,7 +4413,7 @@
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -4103,7 +4424,7 @@
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -4114,7 +4435,7 @@
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -4125,7 +4446,7 @@
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -4136,7 +4457,7 @@
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -4147,7 +4468,7 @@
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -4158,7 +4479,7 @@
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -4169,7 +4490,7 @@
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
     </row>
-    <row r="278" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -4180,7 +4501,7 @@
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -4191,7 +4512,7 @@
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -4202,7 +4523,7 @@
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -4213,7 +4534,7 @@
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -4224,7 +4545,7 @@
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -4235,7 +4556,7 @@
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -4246,7 +4567,7 @@
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -4257,7 +4578,7 @@
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -4268,7 +4589,7 @@
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -4279,7 +4600,7 @@
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -4290,7 +4611,7 @@
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -4301,7 +4622,7 @@
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -4312,7 +4633,7 @@
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -4323,7 +4644,7 @@
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -4334,7 +4655,7 @@
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -4345,7 +4666,7 @@
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -4356,7 +4677,7 @@
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -4367,7 +4688,7 @@
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -4378,7 +4699,7 @@
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -4389,7 +4710,7 @@
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -4400,7 +4721,7 @@
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -4411,7 +4732,7 @@
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -4422,7 +4743,7 @@
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -4433,7 +4754,7 @@
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -4444,7 +4765,7 @@
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -4455,7 +4776,7 @@
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -4466,7 +4787,7 @@
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -4477,7 +4798,7 @@
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -4488,7 +4809,7 @@
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -4499,7 +4820,7 @@
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -4510,7 +4831,7 @@
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -4521,7 +4842,7 @@
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -4532,7 +4853,7 @@
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -4543,7 +4864,7 @@
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -4554,7 +4875,7 @@
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -4565,7 +4886,7 @@
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -4576,7 +4897,7 @@
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -4587,7 +4908,7 @@
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -4598,7 +4919,7 @@
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -4609,7 +4930,7 @@
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -4620,7 +4941,7 @@
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -4631,7 +4952,7 @@
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -4642,7 +4963,7 @@
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -4653,7 +4974,7 @@
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -4664,7 +4985,7 @@
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -4675,7 +4996,7 @@
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -4686,7 +5007,7 @@
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -4697,7 +5018,7 @@
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -4708,7 +5029,7 @@
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -4719,7 +5040,7 @@
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -4730,7 +5051,7 @@
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -4741,7 +5062,7 @@
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -4752,7 +5073,7 @@
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -4763,7 +5084,7 @@
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
     </row>
-    <row r="332" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -4774,7 +5095,7 @@
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -4785,7 +5106,7 @@
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
     </row>
-    <row r="334" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -4796,7 +5117,7 @@
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
     </row>
-    <row r="335" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -4807,7 +5128,7 @@
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
     </row>
-    <row r="336" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -4818,7 +5139,7 @@
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -4829,7 +5150,7 @@
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -4840,7 +5161,7 @@
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -4851,7 +5172,7 @@
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -4862,7 +5183,7 @@
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -4873,7 +5194,7 @@
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -4884,7 +5205,7 @@
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -4895,7 +5216,7 @@
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -4906,7 +5227,7 @@
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -4917,7 +5238,7 @@
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -4928,7 +5249,7 @@
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -4939,7 +5260,7 @@
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -4950,7 +5271,7 @@
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
     </row>
-    <row r="349" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -4961,7 +5282,7 @@
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
     </row>
-    <row r="350" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -4972,7 +5293,7 @@
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
     </row>
-    <row r="351" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -4983,7 +5304,7 @@
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
     </row>
-    <row r="352" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -4994,7 +5315,7 @@
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
     </row>
-    <row r="353" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -5005,7 +5326,7 @@
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
     </row>
-    <row r="354" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -5016,7 +5337,7 @@
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
     </row>
-    <row r="355" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -5027,7 +5348,7 @@
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
     </row>
-    <row r="356" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -5038,7 +5359,7 @@
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
     </row>
-    <row r="357" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -5049,7 +5370,7 @@
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
     </row>
-    <row r="358" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -5060,7 +5381,7 @@
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
     </row>
-    <row r="359" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -5071,7 +5392,7 @@
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
     </row>
-    <row r="360" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -5082,7 +5403,7 @@
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
     </row>
-    <row r="361" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -5093,7 +5414,7 @@
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
     </row>
-    <row r="362" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -5104,7 +5425,7 @@
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
     </row>
-    <row r="363" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -5115,7 +5436,7 @@
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
     </row>
-    <row r="364" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -5126,7 +5447,7 @@
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
     </row>
-    <row r="365" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -5137,7 +5458,7 @@
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
     </row>
-    <row r="366" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -5148,7 +5469,7 @@
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
     </row>
-    <row r="367" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -5159,7 +5480,7 @@
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
     </row>
-    <row r="368" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -5170,7 +5491,7 @@
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
     </row>
-    <row r="369" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -5181,7 +5502,7 @@
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
     </row>
-    <row r="370" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -5192,7 +5513,7 @@
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
     </row>
-    <row r="371" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -5203,7 +5524,7 @@
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
     </row>
-    <row r="372" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -5214,7 +5535,7 @@
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
     </row>
-    <row r="373" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -5225,7 +5546,7 @@
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
     </row>
-    <row r="374" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -5236,7 +5557,7 @@
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
     </row>
-    <row r="375" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -5247,7 +5568,7 @@
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
     </row>
-    <row r="376" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -5258,7 +5579,7 @@
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
     </row>
-    <row r="377" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -5269,7 +5590,7 @@
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
     </row>
-    <row r="378" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -5280,7 +5601,7 @@
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
     </row>
-    <row r="379" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -5291,7 +5612,7 @@
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
     </row>
-    <row r="380" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -5302,7 +5623,7 @@
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
     </row>
-    <row r="381" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -5313,7 +5634,7 @@
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
     </row>
-    <row r="382" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -5324,7 +5645,7 @@
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
     </row>
-    <row r="383" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -5335,7 +5656,7 @@
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
     </row>
-    <row r="384" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -5346,7 +5667,7 @@
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
     </row>
-    <row r="385" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -5357,7 +5678,7 @@
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
     </row>
-    <row r="386" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -5368,7 +5689,7 @@
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
     </row>
-    <row r="387" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -5379,7 +5700,7 @@
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
     </row>
-    <row r="388" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -5390,7 +5711,7 @@
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
     </row>
-    <row r="389" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -5401,7 +5722,7 @@
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
     </row>
-    <row r="390" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -5412,7 +5733,7 @@
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
     </row>
-    <row r="391" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -5423,7 +5744,7 @@
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
     </row>
-    <row r="392" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -5434,7 +5755,7 @@
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
     </row>
-    <row r="393" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -5445,7 +5766,7 @@
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
     </row>
-    <row r="394" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -5456,7 +5777,7 @@
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
     </row>
-    <row r="395" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -5467,7 +5788,7 @@
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
     </row>
-    <row r="396" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -5478,7 +5799,7 @@
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
     </row>
-    <row r="397" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -5489,7 +5810,7 @@
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
     </row>
-    <row r="398" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -5500,7 +5821,7 @@
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
     </row>
-    <row r="399" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -5511,7 +5832,7 @@
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
     </row>
-    <row r="400" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -5522,7 +5843,7 @@
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
     </row>
-    <row r="401" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -5533,7 +5854,7 @@
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
     </row>
-    <row r="402" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -5544,7 +5865,7 @@
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
     </row>
-    <row r="403" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -5555,7 +5876,7 @@
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
     </row>
-    <row r="404" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -5566,7 +5887,7 @@
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
     </row>
-    <row r="405" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -5577,7 +5898,7 @@
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
     </row>
-    <row r="406" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -5588,7 +5909,7 @@
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
     </row>
-    <row r="407" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -5599,7 +5920,7 @@
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
     </row>
-    <row r="408" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -5610,7 +5931,7 @@
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
     </row>
-    <row r="409" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -5621,7 +5942,7 @@
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
     </row>
-    <row r="410" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -5632,7 +5953,7 @@
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
     </row>
-    <row r="411" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -5643,7 +5964,7 @@
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
     </row>
-    <row r="412" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -5654,7 +5975,7 @@
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
     </row>
-    <row r="413" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -5665,7 +5986,7 @@
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
     </row>
-    <row r="414" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -5676,7 +5997,7 @@
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
     </row>
-    <row r="415" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -5687,7 +6008,7 @@
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
     </row>
-    <row r="416" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -5698,7 +6019,7 @@
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
     </row>
-    <row r="417" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -5709,7 +6030,7 @@
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
     </row>
-    <row r="418" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -5720,7 +6041,7 @@
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
     </row>
-    <row r="419" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -5731,7 +6052,7 @@
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
     </row>
-    <row r="420" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -5742,7 +6063,7 @@
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
     </row>
-    <row r="421" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -5753,7 +6074,7 @@
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
     </row>
-    <row r="422" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -5764,7 +6085,7 @@
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
     </row>
-    <row r="423" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -5775,7 +6096,7 @@
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
     </row>
-    <row r="424" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -5786,7 +6107,7 @@
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
     </row>
-    <row r="425" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -5797,7 +6118,7 @@
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
     </row>
-    <row r="426" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -5808,7 +6129,7 @@
       <c r="H426" s="1"/>
       <c r="I426" s="1"/>
     </row>
-    <row r="427" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -5819,7 +6140,7 @@
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
     </row>
-    <row r="428" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -5830,7 +6151,7 @@
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
     </row>
-    <row r="429" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -5841,7 +6162,7 @@
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
     </row>
-    <row r="430" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -5852,7 +6173,7 @@
       <c r="H430" s="1"/>
       <c r="I430" s="1"/>
     </row>
-    <row r="431" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -5863,7 +6184,7 @@
       <c r="H431" s="1"/>
       <c r="I431" s="1"/>
     </row>
-    <row r="432" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -5874,7 +6195,7 @@
       <c r="H432" s="1"/>
       <c r="I432" s="1"/>
     </row>
-    <row r="433" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -5885,7 +6206,7 @@
       <c r="H433" s="1"/>
       <c r="I433" s="1"/>
     </row>
-    <row r="434" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -5896,7 +6217,7 @@
       <c r="H434" s="1"/>
       <c r="I434" s="1"/>
     </row>
-    <row r="435" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -5907,7 +6228,7 @@
       <c r="H435" s="1"/>
       <c r="I435" s="1"/>
     </row>
-    <row r="436" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -5918,7 +6239,7 @@
       <c r="H436" s="1"/>
       <c r="I436" s="1"/>
     </row>
-    <row r="437" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -5929,7 +6250,7 @@
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
     </row>
-    <row r="438" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -5940,7 +6261,7 @@
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
     </row>
-    <row r="439" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -5951,7 +6272,7 @@
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
     </row>
-    <row r="440" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -5962,7 +6283,7 @@
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
     </row>
-    <row r="441" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -5973,7 +6294,7 @@
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
     </row>
-    <row r="442" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -5984,7 +6305,7 @@
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
     </row>
-    <row r="443" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -5995,7 +6316,7 @@
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
     </row>
-    <row r="444" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -6006,7 +6327,7 @@
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
     </row>
-    <row r="445" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -6017,7 +6338,7 @@
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
     </row>
-    <row r="446" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -6028,7 +6349,7 @@
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
     </row>
-    <row r="447" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -6039,7 +6360,7 @@
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
     </row>
-    <row r="448" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -6050,7 +6371,7 @@
       <c r="H448" s="1"/>
       <c r="I448" s="1"/>
     </row>
-    <row r="449" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -6061,7 +6382,7 @@
       <c r="H449" s="1"/>
       <c r="I449" s="1"/>
     </row>
-    <row r="450" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -6072,7 +6393,7 @@
       <c r="H450" s="1"/>
       <c r="I450" s="1"/>
     </row>
-    <row r="451" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -6083,7 +6404,7 @@
       <c r="H451" s="1"/>
       <c r="I451" s="1"/>
     </row>
-    <row r="452" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -6094,7 +6415,7 @@
       <c r="H452" s="1"/>
       <c r="I452" s="1"/>
     </row>
-    <row r="453" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -6105,7 +6426,7 @@
       <c r="H453" s="1"/>
       <c r="I453" s="1"/>
     </row>
-    <row r="454" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -6116,7 +6437,7 @@
       <c r="H454" s="1"/>
       <c r="I454" s="1"/>
     </row>
-    <row r="455" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -6127,7 +6448,7 @@
       <c r="H455" s="1"/>
       <c r="I455" s="1"/>
     </row>
-    <row r="456" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -6138,7 +6459,7 @@
       <c r="H456" s="1"/>
       <c r="I456" s="1"/>
     </row>
-    <row r="457" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -6149,7 +6470,7 @@
       <c r="H457" s="1"/>
       <c r="I457" s="1"/>
     </row>
-    <row r="458" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -6160,7 +6481,7 @@
       <c r="H458" s="1"/>
       <c r="I458" s="1"/>
     </row>
-    <row r="459" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -6171,7 +6492,7 @@
       <c r="H459" s="1"/>
       <c r="I459" s="1"/>
     </row>
-    <row r="460" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -6182,7 +6503,7 @@
       <c r="H460" s="1"/>
       <c r="I460" s="1"/>
     </row>
-    <row r="461" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -6193,7 +6514,7 @@
       <c r="H461" s="1"/>
       <c r="I461" s="1"/>
     </row>
-    <row r="462" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -6204,7 +6525,7 @@
       <c r="H462" s="1"/>
       <c r="I462" s="1"/>
     </row>
-    <row r="463" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -6215,7 +6536,7 @@
       <c r="H463" s="1"/>
       <c r="I463" s="1"/>
     </row>
-    <row r="464" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -6226,7 +6547,7 @@
       <c r="H464" s="1"/>
       <c r="I464" s="1"/>
     </row>
-    <row r="465" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -6237,7 +6558,7 @@
       <c r="H465" s="1"/>
       <c r="I465" s="1"/>
     </row>
-    <row r="466" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -6248,7 +6569,7 @@
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
     </row>
-    <row r="467" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -6259,7 +6580,7 @@
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
     </row>
-    <row r="468" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -6270,7 +6591,7 @@
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
     </row>
-    <row r="469" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -6281,7 +6602,7 @@
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
     </row>
-    <row r="470" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -6292,7 +6613,7 @@
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
     </row>
-    <row r="471" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -6303,7 +6624,7 @@
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
     </row>
-    <row r="472" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -6314,7 +6635,7 @@
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
     </row>
-    <row r="473" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -6325,7 +6646,7 @@
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
     </row>
-    <row r="474" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -6336,7 +6657,7 @@
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
     </row>
-    <row r="475" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -6347,7 +6668,7 @@
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
     </row>
-    <row r="476" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -6358,7 +6679,7 @@
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
     </row>
-    <row r="477" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -6369,7 +6690,7 @@
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
     </row>
-    <row r="478" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -6380,7 +6701,7 @@
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
     </row>
-    <row r="479" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -6391,7 +6712,7 @@
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
     </row>
-    <row r="480" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -6402,7 +6723,7 @@
       <c r="H480" s="1"/>
       <c r="I480" s="1"/>
     </row>
-    <row r="481" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -6413,7 +6734,7 @@
       <c r="H481" s="1"/>
       <c r="I481" s="1"/>
     </row>
-    <row r="482" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -6424,7 +6745,7 @@
       <c r="H482" s="1"/>
       <c r="I482" s="1"/>
     </row>
-    <row r="483" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -6435,7 +6756,7 @@
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -6446,7 +6767,7 @@
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -6457,7 +6778,7 @@
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -6468,7 +6789,7 @@
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -6479,7 +6800,7 @@
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -6490,7 +6811,7 @@
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -6501,7 +6822,7 @@
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -6512,7 +6833,7 @@
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -6523,7 +6844,7 @@
       <c r="H491" s="1"/>
       <c r="I491" s="1"/>
     </row>
-    <row r="492" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -6534,7 +6855,7 @@
       <c r="H492" s="1"/>
       <c r="I492" s="1"/>
     </row>
-    <row r="493" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -6545,7 +6866,7 @@
       <c r="H493" s="1"/>
       <c r="I493" s="1"/>
     </row>
-    <row r="494" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -6556,7 +6877,7 @@
       <c r="H494" s="1"/>
       <c r="I494" s="1"/>
     </row>
-    <row r="495" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -6567,7 +6888,7 @@
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
     </row>
-    <row r="496" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -6578,7 +6899,7 @@
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
     </row>
-    <row r="497" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -6589,7 +6910,7 @@
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
     </row>
-    <row r="498" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -6600,7 +6921,7 @@
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
     </row>
-    <row r="499" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -6611,7 +6932,7 @@
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
     </row>
-    <row r="500" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -6622,7 +6943,7 @@
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
     </row>
-    <row r="501" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -6633,7 +6954,7 @@
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
     </row>
-    <row r="502" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -6644,7 +6965,7 @@
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
     </row>
-    <row r="503" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -6655,7 +6976,7 @@
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
     </row>
-    <row r="504" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -6666,7 +6987,7 @@
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
     </row>
-    <row r="505" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -6677,7 +6998,7 @@
       <c r="H505" s="1"/>
       <c r="I505" s="1"/>
     </row>
-    <row r="506" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -6688,7 +7009,7 @@
       <c r="H506" s="1"/>
       <c r="I506" s="1"/>
     </row>
-    <row r="507" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -6699,7 +7020,7 @@
       <c r="H507" s="1"/>
       <c r="I507" s="1"/>
     </row>
-    <row r="508" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -6710,7 +7031,7 @@
       <c r="H508" s="1"/>
       <c r="I508" s="1"/>
     </row>
-    <row r="509" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -6721,7 +7042,7 @@
       <c r="H509" s="1"/>
       <c r="I509" s="1"/>
     </row>
-    <row r="510" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -6732,7 +7053,7 @@
       <c r="H510" s="1"/>
       <c r="I510" s="1"/>
     </row>
-    <row r="511" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -6743,7 +7064,7 @@
       <c r="H511" s="1"/>
       <c r="I511" s="1"/>
     </row>
-    <row r="512" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -6754,7 +7075,7 @@
       <c r="H512" s="1"/>
       <c r="I512" s="1"/>
     </row>
-    <row r="513" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -6765,7 +7086,7 @@
       <c r="H513" s="1"/>
       <c r="I513" s="1"/>
     </row>
-    <row r="514" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -6776,7 +7097,7 @@
       <c r="H514" s="1"/>
       <c r="I514" s="1"/>
     </row>
-    <row r="515" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -6787,7 +7108,7 @@
       <c r="H515" s="1"/>
       <c r="I515" s="1"/>
     </row>
-    <row r="516" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -6798,7 +7119,7 @@
       <c r="H516" s="1"/>
       <c r="I516" s="1"/>
     </row>
-    <row r="517" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -6809,7 +7130,7 @@
       <c r="H517" s="1"/>
       <c r="I517" s="1"/>
     </row>
-    <row r="518" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -6820,7 +7141,7 @@
       <c r="H518" s="1"/>
       <c r="I518" s="1"/>
     </row>
-    <row r="519" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -6831,7 +7152,7 @@
       <c r="H519" s="1"/>
       <c r="I519" s="1"/>
     </row>
-    <row r="520" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -6842,7 +7163,7 @@
       <c r="H520" s="1"/>
       <c r="I520" s="1"/>
     </row>
-    <row r="521" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -6853,7 +7174,7 @@
       <c r="H521" s="1"/>
       <c r="I521" s="1"/>
     </row>
-    <row r="522" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -6864,7 +7185,7 @@
       <c r="H522" s="1"/>
       <c r="I522" s="1"/>
     </row>
-    <row r="523" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -6875,7 +7196,7 @@
       <c r="H523" s="1"/>
       <c r="I523" s="1"/>
     </row>
-    <row r="524" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -6886,7 +7207,7 @@
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
     </row>
-    <row r="525" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -6897,7 +7218,7 @@
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
     </row>
-    <row r="526" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -6908,7 +7229,7 @@
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
     </row>
-    <row r="527" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -6919,7 +7240,7 @@
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
     </row>
-    <row r="528" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -6930,7 +7251,7 @@
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
     </row>
-    <row r="529" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -6941,7 +7262,7 @@
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
     </row>
-    <row r="530" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -6952,7 +7273,7 @@
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
     </row>
-    <row r="531" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -6963,7 +7284,7 @@
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
     </row>
-    <row r="532" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -6974,7 +7295,7 @@
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
     </row>
-    <row r="533" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -6985,7 +7306,7 @@
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
     </row>
-    <row r="534" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -6996,7 +7317,7 @@
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
     </row>
-    <row r="535" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -7007,7 +7328,7 @@
       <c r="H535" s="1"/>
       <c r="I535" s="1"/>
     </row>
-    <row r="536" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -7018,7 +7339,7 @@
       <c r="H536" s="1"/>
       <c r="I536" s="1"/>
     </row>
-    <row r="537" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -7029,7 +7350,7 @@
       <c r="H537" s="1"/>
       <c r="I537" s="1"/>
     </row>
-    <row r="538" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -7040,7 +7361,7 @@
       <c r="H538" s="1"/>
       <c r="I538" s="1"/>
     </row>
-    <row r="539" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -7051,7 +7372,7 @@
       <c r="H539" s="1"/>
       <c r="I539" s="1"/>
     </row>
-    <row r="540" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -7062,7 +7383,7 @@
       <c r="H540" s="1"/>
       <c r="I540" s="1"/>
     </row>
-    <row r="541" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -7073,7 +7394,7 @@
       <c r="H541" s="1"/>
       <c r="I541" s="1"/>
     </row>
-    <row r="542" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -7084,7 +7405,7 @@
       <c r="H542" s="1"/>
       <c r="I542" s="1"/>
     </row>
-    <row r="543" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -7095,7 +7416,7 @@
       <c r="H543" s="1"/>
       <c r="I543" s="1"/>
     </row>
-    <row r="544" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -7106,7 +7427,7 @@
       <c r="H544" s="1"/>
       <c r="I544" s="1"/>
     </row>
-    <row r="545" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -7117,7 +7438,7 @@
       <c r="H545" s="1"/>
       <c r="I545" s="1"/>
     </row>
-    <row r="546" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -7128,7 +7449,7 @@
       <c r="H546" s="1"/>
       <c r="I546" s="1"/>
     </row>
-    <row r="547" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -7139,7 +7460,7 @@
       <c r="H547" s="1"/>
       <c r="I547" s="1"/>
     </row>
-    <row r="548" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -7150,7 +7471,7 @@
       <c r="H548" s="1"/>
       <c r="I548" s="1"/>
     </row>
-    <row r="549" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -7161,7 +7482,7 @@
       <c r="H549" s="1"/>
       <c r="I549" s="1"/>
     </row>
-    <row r="550" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -7172,7 +7493,7 @@
       <c r="H550" s="1"/>
       <c r="I550" s="1"/>
     </row>
-    <row r="551" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -7183,7 +7504,7 @@
       <c r="H551" s="1"/>
       <c r="I551" s="1"/>
     </row>
-    <row r="552" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -7194,7 +7515,7 @@
       <c r="H552" s="1"/>
       <c r="I552" s="1"/>
     </row>
-    <row r="553" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -7205,7 +7526,7 @@
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
     </row>
-    <row r="554" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -7216,7 +7537,7 @@
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
     </row>
-    <row r="555" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -7227,7 +7548,7 @@
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
     </row>
-    <row r="556" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -7238,7 +7559,7 @@
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
     </row>
-    <row r="557" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -7249,7 +7570,7 @@
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
     </row>
-    <row r="558" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -7260,7 +7581,7 @@
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
     </row>
-    <row r="559" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -7271,7 +7592,7 @@
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
     </row>
-    <row r="560" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -7282,7 +7603,7 @@
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
     </row>
-    <row r="561" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -7293,7 +7614,7 @@
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
     </row>
-    <row r="562" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -7304,7 +7625,7 @@
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
     </row>
-    <row r="563" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -7315,7 +7636,7 @@
       <c r="H563" s="1"/>
       <c r="I563" s="1"/>
     </row>
-    <row r="564" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -7326,7 +7647,7 @@
       <c r="H564" s="1"/>
       <c r="I564" s="1"/>
     </row>
-    <row r="565" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -7337,7 +7658,7 @@
       <c r="H565" s="1"/>
       <c r="I565" s="1"/>
     </row>
-    <row r="566" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -7348,7 +7669,7 @@
       <c r="H566" s="1"/>
       <c r="I566" s="1"/>
     </row>
-    <row r="567" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -7359,7 +7680,7 @@
       <c r="H567" s="1"/>
       <c r="I567" s="1"/>
     </row>
-    <row r="568" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -7370,7 +7691,7 @@
       <c r="H568" s="1"/>
       <c r="I568" s="1"/>
     </row>
-    <row r="569" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -7381,7 +7702,7 @@
       <c r="H569" s="1"/>
       <c r="I569" s="1"/>
     </row>
-    <row r="570" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -7392,7 +7713,7 @@
       <c r="H570" s="1"/>
       <c r="I570" s="1"/>
     </row>
-    <row r="571" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -7403,7 +7724,7 @@
       <c r="H571" s="1"/>
       <c r="I571" s="1"/>
     </row>
-    <row r="572" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -7414,7 +7735,7 @@
       <c r="H572" s="1"/>
       <c r="I572" s="1"/>
     </row>
-    <row r="573" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -7425,7 +7746,7 @@
       <c r="H573" s="1"/>
       <c r="I573" s="1"/>
     </row>
-    <row r="574" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -7436,7 +7757,7 @@
       <c r="H574" s="1"/>
       <c r="I574" s="1"/>
     </row>
-    <row r="575" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -7447,7 +7768,7 @@
       <c r="H575" s="1"/>
       <c r="I575" s="1"/>
     </row>
-    <row r="576" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -7458,7 +7779,7 @@
       <c r="H576" s="1"/>
       <c r="I576" s="1"/>
     </row>
-    <row r="577" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -7469,7 +7790,7 @@
       <c r="H577" s="1"/>
       <c r="I577" s="1"/>
     </row>
-    <row r="578" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -7480,7 +7801,7 @@
       <c r="H578" s="1"/>
       <c r="I578" s="1"/>
     </row>
-    <row r="579" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -7491,7 +7812,7 @@
       <c r="H579" s="1"/>
       <c r="I579" s="1"/>
     </row>
-    <row r="580" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -7502,7 +7823,7 @@
       <c r="H580" s="1"/>
       <c r="I580" s="1"/>
     </row>
-    <row r="581" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -7513,7 +7834,7 @@
       <c r="H581" s="1"/>
       <c r="I581" s="1"/>
     </row>
-    <row r="582" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -7524,7 +7845,7 @@
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
     </row>
-    <row r="583" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -7535,7 +7856,7 @@
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
     </row>
-    <row r="584" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -7546,7 +7867,7 @@
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
     </row>
-    <row r="585" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -7557,7 +7878,7 @@
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
     </row>
-    <row r="586" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -7568,7 +7889,7 @@
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
     </row>
-    <row r="587" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -7579,7 +7900,7 @@
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
     </row>
-    <row r="588" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -7590,7 +7911,7 @@
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
     </row>
-    <row r="589" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -7601,7 +7922,7 @@
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
     </row>
-    <row r="590" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -7612,7 +7933,7 @@
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
     </row>
-    <row r="591" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -7623,7 +7944,7 @@
       <c r="H591" s="1"/>
       <c r="I591" s="1"/>
     </row>
-    <row r="592" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -7634,7 +7955,7 @@
       <c r="H592" s="1"/>
       <c r="I592" s="1"/>
     </row>
-    <row r="593" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -7645,7 +7966,7 @@
       <c r="H593" s="1"/>
       <c r="I593" s="1"/>
     </row>
-    <row r="594" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -7656,7 +7977,7 @@
       <c r="H594" s="1"/>
       <c r="I594" s="1"/>
     </row>
-    <row r="595" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -7667,7 +7988,7 @@
       <c r="H595" s="1"/>
       <c r="I595" s="1"/>
     </row>
-    <row r="596" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -7678,7 +7999,7 @@
       <c r="H596" s="1"/>
       <c r="I596" s="1"/>
     </row>
-    <row r="597" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -7689,7 +8010,7 @@
       <c r="H597" s="1"/>
       <c r="I597" s="1"/>
     </row>
-    <row r="598" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -7700,7 +8021,7 @@
       <c r="H598" s="1"/>
       <c r="I598" s="1"/>
     </row>
-    <row r="599" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -7711,7 +8032,7 @@
       <c r="H599" s="1"/>
       <c r="I599" s="1"/>
     </row>
-    <row r="600" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -7722,7 +8043,7 @@
       <c r="H600" s="1"/>
       <c r="I600" s="1"/>
     </row>
-    <row r="601" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -7733,7 +8054,7 @@
       <c r="H601" s="1"/>
       <c r="I601" s="1"/>
     </row>
-    <row r="602" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -7744,7 +8065,7 @@
       <c r="H602" s="1"/>
       <c r="I602" s="1"/>
     </row>
-    <row r="603" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -7755,7 +8076,7 @@
       <c r="H603" s="1"/>
       <c r="I603" s="1"/>
     </row>
-    <row r="604" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -7766,7 +8087,7 @@
       <c r="H604" s="1"/>
       <c r="I604" s="1"/>
     </row>
-    <row r="605" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -7777,7 +8098,7 @@
       <c r="H605" s="1"/>
       <c r="I605" s="1"/>
     </row>
-    <row r="606" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -7788,7 +8109,7 @@
       <c r="H606" s="1"/>
       <c r="I606" s="1"/>
     </row>
-    <row r="607" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -7799,7 +8120,7 @@
       <c r="H607" s="1"/>
       <c r="I607" s="1"/>
     </row>
-    <row r="608" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -7810,7 +8131,7 @@
       <c r="H608" s="1"/>
       <c r="I608" s="1"/>
     </row>
-    <row r="609" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -7821,7 +8142,7 @@
       <c r="H609" s="1"/>
       <c r="I609" s="1"/>
     </row>
-    <row r="610" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -7832,7 +8153,7 @@
       <c r="H610" s="1"/>
       <c r="I610" s="1"/>
     </row>
-    <row r="611" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -7843,7 +8164,7 @@
       <c r="H611" s="1"/>
       <c r="I611" s="1"/>
     </row>
-    <row r="612" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -7854,7 +8175,7 @@
       <c r="H612" s="1"/>
       <c r="I612" s="1"/>
     </row>
-    <row r="613" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -7865,7 +8186,7 @@
       <c r="H613" s="1"/>
       <c r="I613" s="1"/>
     </row>
-    <row r="614" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -7876,7 +8197,7 @@
       <c r="H614" s="1"/>
       <c r="I614" s="1"/>
     </row>
-    <row r="615" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -7887,7 +8208,7 @@
       <c r="H615" s="1"/>
       <c r="I615" s="1"/>
     </row>
-    <row r="616" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -7898,7 +8219,7 @@
       <c r="H616" s="1"/>
       <c r="I616" s="1"/>
     </row>
-    <row r="617" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -7909,7 +8230,7 @@
       <c r="H617" s="1"/>
       <c r="I617" s="1"/>
     </row>
-    <row r="618" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -7920,7 +8241,7 @@
       <c r="H618" s="1"/>
       <c r="I618" s="1"/>
     </row>
-    <row r="619" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -7931,7 +8252,7 @@
       <c r="H619" s="1"/>
       <c r="I619" s="1"/>
     </row>
-    <row r="620" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -7942,7 +8263,7 @@
       <c r="H620" s="1"/>
       <c r="I620" s="1"/>
     </row>
-    <row r="621" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -7953,7 +8274,7 @@
       <c r="H621" s="1"/>
       <c r="I621" s="1"/>
     </row>
-    <row r="622" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -7964,7 +8285,7 @@
       <c r="H622" s="1"/>
       <c r="I622" s="1"/>
     </row>
-    <row r="623" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -7975,7 +8296,7 @@
       <c r="H623" s="1"/>
       <c r="I623" s="1"/>
     </row>
-    <row r="624" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -7986,7 +8307,7 @@
       <c r="H624" s="1"/>
       <c r="I624" s="1"/>
     </row>
-    <row r="625" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -7997,7 +8318,7 @@
       <c r="H625" s="1"/>
       <c r="I625" s="1"/>
     </row>
-    <row r="626" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -8008,7 +8329,7 @@
       <c r="H626" s="1"/>
       <c r="I626" s="1"/>
     </row>
-    <row r="627" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -8019,7 +8340,7 @@
       <c r="H627" s="1"/>
       <c r="I627" s="1"/>
     </row>
-    <row r="628" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -8030,7 +8351,7 @@
       <c r="H628" s="1"/>
       <c r="I628" s="1"/>
     </row>
-    <row r="629" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -8041,7 +8362,7 @@
       <c r="H629" s="1"/>
       <c r="I629" s="1"/>
     </row>
-    <row r="630" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -8052,7 +8373,7 @@
       <c r="H630" s="1"/>
       <c r="I630" s="1"/>
     </row>
-    <row r="631" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -8063,7 +8384,7 @@
       <c r="H631" s="1"/>
       <c r="I631" s="1"/>
     </row>
-    <row r="632" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -8074,7 +8395,7 @@
       <c r="H632" s="1"/>
       <c r="I632" s="1"/>
     </row>
-    <row r="633" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -8085,7 +8406,7 @@
       <c r="H633" s="1"/>
       <c r="I633" s="1"/>
     </row>
-    <row r="634" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -8096,7 +8417,7 @@
       <c r="H634" s="1"/>
       <c r="I634" s="1"/>
     </row>
-    <row r="635" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -8107,7 +8428,7 @@
       <c r="H635" s="1"/>
       <c r="I635" s="1"/>
     </row>
-    <row r="636" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -8118,7 +8439,7 @@
       <c r="H636" s="1"/>
       <c r="I636" s="1"/>
     </row>
-    <row r="637" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -8129,7 +8450,7 @@
       <c r="H637" s="1"/>
       <c r="I637" s="1"/>
     </row>
-    <row r="638" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -8140,7 +8461,7 @@
       <c r="H638" s="1"/>
       <c r="I638" s="1"/>
     </row>
-    <row r="639" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -8151,7 +8472,7 @@
       <c r="H639" s="1"/>
       <c r="I639" s="1"/>
     </row>
-    <row r="640" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -8162,7 +8483,7 @@
       <c r="H640" s="1"/>
       <c r="I640" s="1"/>
     </row>
-    <row r="641" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -8173,7 +8494,7 @@
       <c r="H641" s="1"/>
       <c r="I641" s="1"/>
     </row>
-    <row r="642" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -8184,7 +8505,7 @@
       <c r="H642" s="1"/>
       <c r="I642" s="1"/>
     </row>
-    <row r="643" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -8195,7 +8516,7 @@
       <c r="H643" s="1"/>
       <c r="I643" s="1"/>
     </row>
-    <row r="644" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -8206,7 +8527,7 @@
       <c r="H644" s="1"/>
       <c r="I644" s="1"/>
     </row>
-    <row r="645" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -8217,7 +8538,7 @@
       <c r="H645" s="1"/>
       <c r="I645" s="1"/>
     </row>
-    <row r="646" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -8228,7 +8549,7 @@
       <c r="H646" s="1"/>
       <c r="I646" s="1"/>
     </row>
-    <row r="647" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -8239,7 +8560,7 @@
       <c r="H647" s="1"/>
       <c r="I647" s="1"/>
     </row>
-    <row r="648" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -8250,7 +8571,7 @@
       <c r="H648" s="1"/>
       <c r="I648" s="1"/>
     </row>
-    <row r="649" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -8261,7 +8582,7 @@
       <c r="H649" s="1"/>
       <c r="I649" s="1"/>
     </row>
-    <row r="650" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -8272,7 +8593,7 @@
       <c r="H650" s="1"/>
       <c r="I650" s="1"/>
     </row>
-    <row r="651" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -8283,7 +8604,7 @@
       <c r="H651" s="1"/>
       <c r="I651" s="1"/>
     </row>
-    <row r="652" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -8294,7 +8615,7 @@
       <c r="H652" s="1"/>
       <c r="I652" s="1"/>
     </row>
-    <row r="653" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -8305,7 +8626,7 @@
       <c r="H653" s="1"/>
       <c r="I653" s="1"/>
     </row>
-    <row r="654" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -8316,7 +8637,7 @@
       <c r="H654" s="1"/>
       <c r="I654" s="1"/>
     </row>
-    <row r="655" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -8327,7 +8648,7 @@
       <c r="H655" s="1"/>
       <c r="I655" s="1"/>
     </row>
-    <row r="656" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -8338,7 +8659,7 @@
       <c r="H656" s="1"/>
       <c r="I656" s="1"/>
     </row>
-    <row r="657" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -8349,7 +8670,7 @@
       <c r="H657" s="1"/>
       <c r="I657" s="1"/>
     </row>
-    <row r="658" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -8360,7 +8681,7 @@
       <c r="H658" s="1"/>
       <c r="I658" s="1"/>
     </row>
-    <row r="659" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -8371,7 +8692,7 @@
       <c r="H659" s="1"/>
       <c r="I659" s="1"/>
     </row>
-    <row r="660" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -8382,7 +8703,7 @@
       <c r="H660" s="1"/>
       <c r="I660" s="1"/>
     </row>
-    <row r="661" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -8393,7 +8714,7 @@
       <c r="H661" s="1"/>
       <c r="I661" s="1"/>
     </row>
-    <row r="662" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -8404,7 +8725,7 @@
       <c r="H662" s="1"/>
       <c r="I662" s="1"/>
     </row>
-    <row r="663" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -8415,7 +8736,7 @@
       <c r="H663" s="1"/>
       <c r="I663" s="1"/>
     </row>
-    <row r="664" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -8426,7 +8747,7 @@
       <c r="H664" s="1"/>
       <c r="I664" s="1"/>
     </row>
-    <row r="665" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -8437,7 +8758,7 @@
       <c r="H665" s="1"/>
       <c r="I665" s="1"/>
     </row>
-    <row r="666" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -8448,7 +8769,7 @@
       <c r="H666" s="1"/>
       <c r="I666" s="1"/>
     </row>
-    <row r="667" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -8459,7 +8780,7 @@
       <c r="H667" s="1"/>
       <c r="I667" s="1"/>
     </row>
-    <row r="668" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -8470,7 +8791,7 @@
       <c r="H668" s="1"/>
       <c r="I668" s="1"/>
     </row>
-    <row r="669" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -8481,7 +8802,7 @@
       <c r="H669" s="1"/>
       <c r="I669" s="1"/>
     </row>
-    <row r="670" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -8492,7 +8813,7 @@
       <c r="H670" s="1"/>
       <c r="I670" s="1"/>
     </row>
-    <row r="671" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -8503,7 +8824,7 @@
       <c r="H671" s="1"/>
       <c r="I671" s="1"/>
     </row>
-    <row r="672" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -8514,7 +8835,7 @@
       <c r="H672" s="1"/>
       <c r="I672" s="1"/>
     </row>
-    <row r="673" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -8525,7 +8846,7 @@
       <c r="H673" s="1"/>
       <c r="I673" s="1"/>
     </row>
-    <row r="674" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -8536,7 +8857,7 @@
       <c r="H674" s="1"/>
       <c r="I674" s="1"/>
     </row>
-    <row r="675" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -8547,7 +8868,7 @@
       <c r="H675" s="1"/>
       <c r="I675" s="1"/>
     </row>
-    <row r="676" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -8558,7 +8879,7 @@
       <c r="H676" s="1"/>
       <c r="I676" s="1"/>
     </row>
-    <row r="677" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -8569,7 +8890,7 @@
       <c r="H677" s="1"/>
       <c r="I677" s="1"/>
     </row>
-    <row r="678" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -8580,7 +8901,7 @@
       <c r="H678" s="1"/>
       <c r="I678" s="1"/>
     </row>
-    <row r="679" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -8591,7 +8912,7 @@
       <c r="H679" s="1"/>
       <c r="I679" s="1"/>
     </row>
-    <row r="680" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -8602,7 +8923,7 @@
       <c r="H680" s="1"/>
       <c r="I680" s="1"/>
     </row>
-    <row r="681" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -8613,7 +8934,7 @@
       <c r="H681" s="1"/>
       <c r="I681" s="1"/>
     </row>
-    <row r="682" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -8624,7 +8945,7 @@
       <c r="H682" s="1"/>
       <c r="I682" s="1"/>
     </row>
-    <row r="683" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -8635,7 +8956,7 @@
       <c r="H683" s="1"/>
       <c r="I683" s="1"/>
     </row>
-    <row r="684" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -8646,7 +8967,7 @@
       <c r="H684" s="1"/>
       <c r="I684" s="1"/>
     </row>
-    <row r="685" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -8657,7 +8978,7 @@
       <c r="H685" s="1"/>
       <c r="I685" s="1"/>
     </row>
-    <row r="686" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -8668,7 +8989,7 @@
       <c r="H686" s="1"/>
       <c r="I686" s="1"/>
     </row>
-    <row r="687" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -8679,7 +9000,7 @@
       <c r="H687" s="1"/>
       <c r="I687" s="1"/>
     </row>
-    <row r="688" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -8690,7 +9011,7 @@
       <c r="H688" s="1"/>
       <c r="I688" s="1"/>
     </row>
-    <row r="689" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -8701,7 +9022,7 @@
       <c r="H689" s="1"/>
       <c r="I689" s="1"/>
     </row>
-    <row r="690" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -8712,7 +9033,7 @@
       <c r="H690" s="1"/>
       <c r="I690" s="1"/>
     </row>
-    <row r="691" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -8723,7 +9044,7 @@
       <c r="H691" s="1"/>
       <c r="I691" s="1"/>
     </row>
-    <row r="692" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -8734,7 +9055,7 @@
       <c r="H692" s="1"/>
       <c r="I692" s="1"/>
     </row>
-    <row r="693" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -8745,7 +9066,7 @@
       <c r="H693" s="1"/>
       <c r="I693" s="1"/>
     </row>
-    <row r="694" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -8756,7 +9077,7 @@
       <c r="H694" s="1"/>
       <c r="I694" s="1"/>
     </row>
-    <row r="695" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -8767,7 +9088,7 @@
       <c r="H695" s="1"/>
       <c r="I695" s="1"/>
     </row>
-    <row r="696" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -8778,7 +9099,7 @@
       <c r="H696" s="1"/>
       <c r="I696" s="1"/>
     </row>
-    <row r="697" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -8789,7 +9110,7 @@
       <c r="H697" s="1"/>
       <c r="I697" s="1"/>
     </row>
-    <row r="698" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -8800,7 +9121,7 @@
       <c r="H698" s="1"/>
       <c r="I698" s="1"/>
     </row>
-    <row r="699" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -8811,7 +9132,7 @@
       <c r="H699" s="1"/>
       <c r="I699" s="1"/>
     </row>
-    <row r="700" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -8822,7 +9143,7 @@
       <c r="H700" s="1"/>
       <c r="I700" s="1"/>
     </row>
-    <row r="701" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -8833,7 +9154,7 @@
       <c r="H701" s="1"/>
       <c r="I701" s="1"/>
     </row>
-    <row r="702" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -8844,7 +9165,7 @@
       <c r="H702" s="1"/>
       <c r="I702" s="1"/>
     </row>
-    <row r="703" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -8855,7 +9176,7 @@
       <c r="H703" s="1"/>
       <c r="I703" s="1"/>
     </row>
-    <row r="704" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -8866,7 +9187,7 @@
       <c r="H704" s="1"/>
       <c r="I704" s="1"/>
     </row>
-    <row r="705" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -8877,7 +9198,7 @@
       <c r="H705" s="1"/>
       <c r="I705" s="1"/>
     </row>
-    <row r="706" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -8888,7 +9209,7 @@
       <c r="H706" s="1"/>
       <c r="I706" s="1"/>
     </row>
-    <row r="707" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -8899,7 +9220,7 @@
       <c r="H707" s="1"/>
       <c r="I707" s="1"/>
     </row>
-    <row r="708" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -8910,7 +9231,7 @@
       <c r="H708" s="1"/>
       <c r="I708" s="1"/>
     </row>
-    <row r="709" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -8921,7 +9242,7 @@
       <c r="H709" s="1"/>
       <c r="I709" s="1"/>
     </row>
-    <row r="710" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -8932,7 +9253,7 @@
       <c r="H710" s="1"/>
       <c r="I710" s="1"/>
     </row>
-    <row r="711" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -8943,7 +9264,7 @@
       <c r="H711" s="1"/>
       <c r="I711" s="1"/>
     </row>
-    <row r="712" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -8954,7 +9275,7 @@
       <c r="H712" s="1"/>
       <c r="I712" s="1"/>
     </row>
-    <row r="713" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -8965,7 +9286,7 @@
       <c r="H713" s="1"/>
       <c r="I713" s="1"/>
     </row>
-    <row r="714" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -8976,7 +9297,7 @@
       <c r="H714" s="1"/>
       <c r="I714" s="1"/>
     </row>
-    <row r="715" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -8987,7 +9308,7 @@
       <c r="H715" s="1"/>
       <c r="I715" s="1"/>
     </row>
-    <row r="716" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -8998,7 +9319,7 @@
       <c r="H716" s="1"/>
       <c r="I716" s="1"/>
     </row>
-    <row r="717" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -9009,7 +9330,7 @@
       <c r="H717" s="1"/>
       <c r="I717" s="1"/>
     </row>
-    <row r="718" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -9020,7 +9341,7 @@
       <c r="H718" s="1"/>
       <c r="I718" s="1"/>
     </row>
-    <row r="719" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -9031,7 +9352,7 @@
       <c r="H719" s="1"/>
       <c r="I719" s="1"/>
     </row>
-    <row r="720" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -9042,7 +9363,7 @@
       <c r="H720" s="1"/>
       <c r="I720" s="1"/>
     </row>
-    <row r="721" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -9053,7 +9374,7 @@
       <c r="H721" s="1"/>
       <c r="I721" s="1"/>
     </row>
-    <row r="722" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -9064,7 +9385,7 @@
       <c r="H722" s="1"/>
       <c r="I722" s="1"/>
     </row>
-    <row r="723" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -9075,7 +9396,7 @@
       <c r="H723" s="1"/>
       <c r="I723" s="1"/>
     </row>
-    <row r="724" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -9086,7 +9407,7 @@
       <c r="H724" s="1"/>
       <c r="I724" s="1"/>
     </row>
-    <row r="725" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -9097,7 +9418,7 @@
       <c r="H725" s="1"/>
       <c r="I725" s="1"/>
     </row>
-    <row r="726" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -9108,7 +9429,7 @@
       <c r="H726" s="1"/>
       <c r="I726" s="1"/>
     </row>
-    <row r="727" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -9119,7 +9440,7 @@
       <c r="H727" s="1"/>
       <c r="I727" s="1"/>
     </row>
-    <row r="728" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -9130,7 +9451,7 @@
       <c r="H728" s="1"/>
       <c r="I728" s="1"/>
     </row>
-    <row r="729" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -9141,7 +9462,7 @@
       <c r="H729" s="1"/>
       <c r="I729" s="1"/>
     </row>
-    <row r="730" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -9152,7 +9473,7 @@
       <c r="H730" s="1"/>
       <c r="I730" s="1"/>
     </row>
-    <row r="731" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -9163,7 +9484,7 @@
       <c r="H731" s="1"/>
       <c r="I731" s="1"/>
     </row>
-    <row r="732" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -9174,7 +9495,7 @@
       <c r="H732" s="1"/>
       <c r="I732" s="1"/>
     </row>
-    <row r="733" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -9185,7 +9506,7 @@
       <c r="H733" s="1"/>
       <c r="I733" s="1"/>
     </row>
-    <row r="734" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -9196,7 +9517,7 @@
       <c r="H734" s="1"/>
       <c r="I734" s="1"/>
     </row>
-    <row r="735" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -9207,7 +9528,7 @@
       <c r="H735" s="1"/>
       <c r="I735" s="1"/>
     </row>
-    <row r="736" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -9218,7 +9539,7 @@
       <c r="H736" s="1"/>
       <c r="I736" s="1"/>
     </row>
-    <row r="737" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -9229,7 +9550,7 @@
       <c r="H737" s="1"/>
       <c r="I737" s="1"/>
     </row>
-    <row r="738" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -9240,7 +9561,7 @@
       <c r="H738" s="1"/>
       <c r="I738" s="1"/>
     </row>
-    <row r="739" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -9251,7 +9572,7 @@
       <c r="H739" s="1"/>
       <c r="I739" s="1"/>
     </row>
-    <row r="740" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -9262,7 +9583,7 @@
       <c r="H740" s="1"/>
       <c r="I740" s="1"/>
     </row>
-    <row r="741" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -9273,7 +9594,7 @@
       <c r="H741" s="1"/>
       <c r="I741" s="1"/>
     </row>
-    <row r="742" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -9284,7 +9605,7 @@
       <c r="H742" s="1"/>
       <c r="I742" s="1"/>
     </row>
-    <row r="743" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -9295,7 +9616,7 @@
       <c r="H743" s="1"/>
       <c r="I743" s="1"/>
     </row>
-    <row r="744" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -9306,7 +9627,7 @@
       <c r="H744" s="1"/>
       <c r="I744" s="1"/>
     </row>
-    <row r="745" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -9317,7 +9638,7 @@
       <c r="H745" s="1"/>
       <c r="I745" s="1"/>
     </row>
-    <row r="746" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -9328,7 +9649,7 @@
       <c r="H746" s="1"/>
       <c r="I746" s="1"/>
     </row>
-    <row r="747" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -9339,7 +9660,7 @@
       <c r="H747" s="1"/>
       <c r="I747" s="1"/>
     </row>
-    <row r="748" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -9350,7 +9671,7 @@
       <c r="H748" s="1"/>
       <c r="I748" s="1"/>
     </row>
-    <row r="749" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -9361,7 +9682,7 @@
       <c r="H749" s="1"/>
       <c r="I749" s="1"/>
     </row>
-    <row r="750" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -9372,7 +9693,7 @@
       <c r="H750" s="1"/>
       <c r="I750" s="1"/>
     </row>
-    <row r="751" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -9383,7 +9704,7 @@
       <c r="H751" s="1"/>
       <c r="I751" s="1"/>
     </row>
-    <row r="752" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -9394,7 +9715,7 @@
       <c r="H752" s="1"/>
       <c r="I752" s="1"/>
     </row>
-    <row r="753" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -9405,7 +9726,7 @@
       <c r="H753" s="1"/>
       <c r="I753" s="1"/>
     </row>
-    <row r="754" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -9416,7 +9737,7 @@
       <c r="H754" s="1"/>
       <c r="I754" s="1"/>
     </row>
-    <row r="755" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -9427,7 +9748,7 @@
       <c r="H755" s="1"/>
       <c r="I755" s="1"/>
     </row>
-    <row r="756" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -9438,7 +9759,7 @@
       <c r="H756" s="1"/>
       <c r="I756" s="1"/>
     </row>
-    <row r="757" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -9449,7 +9770,7 @@
       <c r="H757" s="1"/>
       <c r="I757" s="1"/>
     </row>
-    <row r="758" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -9460,7 +9781,7 @@
       <c r="H758" s="1"/>
       <c r="I758" s="1"/>
     </row>
-    <row r="759" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -9471,7 +9792,7 @@
       <c r="H759" s="1"/>
       <c r="I759" s="1"/>
     </row>
-    <row r="760" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -9482,7 +9803,7 @@
       <c r="H760" s="1"/>
       <c r="I760" s="1"/>
     </row>
-    <row r="761" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -9493,7 +9814,7 @@
       <c r="H761" s="1"/>
       <c r="I761" s="1"/>
     </row>
-    <row r="762" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -9504,7 +9825,7 @@
       <c r="H762" s="1"/>
       <c r="I762" s="1"/>
     </row>
-    <row r="763" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -9515,7 +9836,7 @@
       <c r="H763" s="1"/>
       <c r="I763" s="1"/>
     </row>
-    <row r="764" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -9526,7 +9847,7 @@
       <c r="H764" s="1"/>
       <c r="I764" s="1"/>
     </row>
-    <row r="765" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -9537,7 +9858,7 @@
       <c r="H765" s="1"/>
       <c r="I765" s="1"/>
     </row>
-    <row r="766" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -9548,7 +9869,7 @@
       <c r="H766" s="1"/>
       <c r="I766" s="1"/>
     </row>
-    <row r="767" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -9559,7 +9880,7 @@
       <c r="H767" s="1"/>
       <c r="I767" s="1"/>
     </row>
-    <row r="768" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -9570,7 +9891,7 @@
       <c r="H768" s="1"/>
       <c r="I768" s="1"/>
     </row>
-    <row r="769" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -9581,7 +9902,7 @@
       <c r="H769" s="1"/>
       <c r="I769" s="1"/>
     </row>
-    <row r="770" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -9592,7 +9913,7 @@
       <c r="H770" s="1"/>
       <c r="I770" s="1"/>
     </row>
-    <row r="771" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -9603,7 +9924,7 @@
       <c r="H771" s="1"/>
       <c r="I771" s="1"/>
     </row>
-    <row r="772" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -9614,7 +9935,7 @@
       <c r="H772" s="1"/>
       <c r="I772" s="1"/>
     </row>
-    <row r="773" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -9625,7 +9946,7 @@
       <c r="H773" s="1"/>
       <c r="I773" s="1"/>
     </row>
-    <row r="774" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -9636,7 +9957,7 @@
       <c r="H774" s="1"/>
       <c r="I774" s="1"/>
     </row>
-    <row r="775" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -9647,7 +9968,7 @@
       <c r="H775" s="1"/>
       <c r="I775" s="1"/>
     </row>
-    <row r="776" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -9658,7 +9979,7 @@
       <c r="H776" s="1"/>
       <c r="I776" s="1"/>
     </row>
-    <row r="777" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -9669,7 +9990,7 @@
       <c r="H777" s="1"/>
       <c r="I777" s="1"/>
     </row>
-    <row r="778" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -9680,7 +10001,7 @@
       <c r="H778" s="1"/>
       <c r="I778" s="1"/>
     </row>
-    <row r="779" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -9691,7 +10012,7 @@
       <c r="H779" s="1"/>
       <c r="I779" s="1"/>
     </row>
-    <row r="780" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -9702,7 +10023,7 @@
       <c r="H780" s="1"/>
       <c r="I780" s="1"/>
     </row>
-    <row r="781" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -9713,7 +10034,7 @@
       <c r="H781" s="1"/>
       <c r="I781" s="1"/>
     </row>
-    <row r="782" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -9724,7 +10045,7 @@
       <c r="H782" s="1"/>
       <c r="I782" s="1"/>
     </row>
-    <row r="783" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -9735,7 +10056,7 @@
       <c r="H783" s="1"/>
       <c r="I783" s="1"/>
     </row>
-    <row r="784" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -9746,7 +10067,7 @@
       <c r="H784" s="1"/>
       <c r="I784" s="1"/>
     </row>
-    <row r="785" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -9757,7 +10078,7 @@
       <c r="H785" s="1"/>
       <c r="I785" s="1"/>
     </row>
-    <row r="786" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -9768,7 +10089,7 @@
       <c r="H786" s="1"/>
       <c r="I786" s="1"/>
     </row>
-    <row r="787" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -9779,7 +10100,7 @@
       <c r="H787" s="1"/>
       <c r="I787" s="1"/>
     </row>
-    <row r="788" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -9790,7 +10111,7 @@
       <c r="H788" s="1"/>
       <c r="I788" s="1"/>
     </row>
-    <row r="789" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -9801,7 +10122,7 @@
       <c r="H789" s="1"/>
       <c r="I789" s="1"/>
     </row>
-    <row r="790" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -9812,7 +10133,7 @@
       <c r="H790" s="1"/>
       <c r="I790" s="1"/>
     </row>
-    <row r="791" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -9823,7 +10144,7 @@
       <c r="H791" s="1"/>
       <c r="I791" s="1"/>
     </row>
-    <row r="792" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -9834,7 +10155,7 @@
       <c r="H792" s="1"/>
       <c r="I792" s="1"/>
     </row>
-    <row r="793" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -9845,7 +10166,7 @@
       <c r="H793" s="1"/>
       <c r="I793" s="1"/>
     </row>
-    <row r="794" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -9856,7 +10177,7 @@
       <c r="H794" s="1"/>
       <c r="I794" s="1"/>
     </row>
-    <row r="795" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -9867,7 +10188,7 @@
       <c r="H795" s="1"/>
       <c r="I795" s="1"/>
     </row>
-    <row r="796" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -9878,7 +10199,7 @@
       <c r="H796" s="1"/>
       <c r="I796" s="1"/>
     </row>
-    <row r="797" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -9889,7 +10210,7 @@
       <c r="H797" s="1"/>
       <c r="I797" s="1"/>
     </row>
-    <row r="798" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -9900,7 +10221,7 @@
       <c r="H798" s="1"/>
       <c r="I798" s="1"/>
     </row>
-    <row r="799" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -9911,7 +10232,7 @@
       <c r="H799" s="1"/>
       <c r="I799" s="1"/>
     </row>
-    <row r="800" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -9922,7 +10243,7 @@
       <c r="H800" s="1"/>
       <c r="I800" s="1"/>
     </row>
-    <row r="801" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -9933,7 +10254,7 @@
       <c r="H801" s="1"/>
       <c r="I801" s="1"/>
     </row>
-    <row r="802" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -9944,7 +10265,7 @@
       <c r="H802" s="1"/>
       <c r="I802" s="1"/>
     </row>
-    <row r="803" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -9955,7 +10276,7 @@
       <c r="H803" s="1"/>
       <c r="I803" s="1"/>
     </row>
-    <row r="804" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -9966,7 +10287,7 @@
       <c r="H804" s="1"/>
       <c r="I804" s="1"/>
     </row>
-    <row r="805" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -9977,7 +10298,7 @@
       <c r="H805" s="1"/>
       <c r="I805" s="1"/>
     </row>
-    <row r="806" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -9988,7 +10309,7 @@
       <c r="H806" s="1"/>
       <c r="I806" s="1"/>
     </row>
-    <row r="807" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -9999,7 +10320,7 @@
       <c r="H807" s="1"/>
       <c r="I807" s="1"/>
     </row>
-    <row r="808" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -10010,7 +10331,7 @@
       <c r="H808" s="1"/>
       <c r="I808" s="1"/>
     </row>
-    <row r="809" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -10021,7 +10342,7 @@
       <c r="H809" s="1"/>
       <c r="I809" s="1"/>
     </row>
-    <row r="810" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -10032,7 +10353,7 @@
       <c r="H810" s="1"/>
       <c r="I810" s="1"/>
     </row>
-    <row r="811" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -10043,7 +10364,7 @@
       <c r="H811" s="1"/>
       <c r="I811" s="1"/>
     </row>
-    <row r="812" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -10054,7 +10375,7 @@
       <c r="H812" s="1"/>
       <c r="I812" s="1"/>
     </row>
-    <row r="813" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -10065,7 +10386,7 @@
       <c r="H813" s="1"/>
       <c r="I813" s="1"/>
     </row>
-    <row r="814" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -10076,7 +10397,7 @@
       <c r="H814" s="1"/>
       <c r="I814" s="1"/>
     </row>
-    <row r="815" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -10087,7 +10408,7 @@
       <c r="H815" s="1"/>
       <c r="I815" s="1"/>
     </row>
-    <row r="816" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -10098,7 +10419,7 @@
       <c r="H816" s="1"/>
       <c r="I816" s="1"/>
     </row>
-    <row r="817" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -10109,7 +10430,7 @@
       <c r="H817" s="1"/>
       <c r="I817" s="1"/>
     </row>
-    <row r="818" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -10120,7 +10441,7 @@
       <c r="H818" s="1"/>
       <c r="I818" s="1"/>
     </row>
-    <row r="819" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -10131,7 +10452,7 @@
       <c r="H819" s="1"/>
       <c r="I819" s="1"/>
     </row>
-    <row r="820" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -10142,7 +10463,7 @@
       <c r="H820" s="1"/>
       <c r="I820" s="1"/>
     </row>
-    <row r="821" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -10153,7 +10474,7 @@
       <c r="H821" s="1"/>
       <c r="I821" s="1"/>
     </row>
-    <row r="822" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -10164,7 +10485,7 @@
       <c r="H822" s="1"/>
       <c r="I822" s="1"/>
     </row>
-    <row r="823" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -10175,7 +10496,7 @@
       <c r="H823" s="1"/>
       <c r="I823" s="1"/>
     </row>
-    <row r="824" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -10186,7 +10507,7 @@
       <c r="H824" s="1"/>
       <c r="I824" s="1"/>
     </row>
-    <row r="825" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -10197,7 +10518,7 @@
       <c r="H825" s="1"/>
       <c r="I825" s="1"/>
     </row>
-    <row r="826" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -10208,7 +10529,7 @@
       <c r="H826" s="1"/>
       <c r="I826" s="1"/>
     </row>
-    <row r="827" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -10219,7 +10540,7 @@
       <c r="H827" s="1"/>
       <c r="I827" s="1"/>
     </row>
-    <row r="828" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -10230,7 +10551,7 @@
       <c r="H828" s="1"/>
       <c r="I828" s="1"/>
     </row>
-    <row r="829" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -10241,7 +10562,7 @@
       <c r="H829" s="1"/>
       <c r="I829" s="1"/>
     </row>
-    <row r="830" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -10252,7 +10573,7 @@
       <c r="H830" s="1"/>
       <c r="I830" s="1"/>
     </row>
-    <row r="831" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -10263,7 +10584,7 @@
       <c r="H831" s="1"/>
       <c r="I831" s="1"/>
     </row>
-    <row r="832" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -10274,7 +10595,7 @@
       <c r="H832" s="1"/>
       <c r="I832" s="1"/>
     </row>
-    <row r="833" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -10285,7 +10606,7 @@
       <c r="H833" s="1"/>
       <c r="I833" s="1"/>
     </row>
-    <row r="834" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -10296,7 +10617,7 @@
       <c r="H834" s="1"/>
       <c r="I834" s="1"/>
     </row>
-    <row r="835" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -10307,7 +10628,7 @@
       <c r="H835" s="1"/>
       <c r="I835" s="1"/>
     </row>
-    <row r="836" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -10318,7 +10639,7 @@
       <c r="H836" s="1"/>
       <c r="I836" s="1"/>
     </row>
-    <row r="837" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -10329,7 +10650,7 @@
       <c r="H837" s="1"/>
       <c r="I837" s="1"/>
     </row>
-    <row r="838" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -10340,7 +10661,7 @@
       <c r="H838" s="1"/>
       <c r="I838" s="1"/>
     </row>
-    <row r="839" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -10351,7 +10672,7 @@
       <c r="H839" s="1"/>
       <c r="I839" s="1"/>
     </row>
-    <row r="840" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -10362,7 +10683,7 @@
       <c r="H840" s="1"/>
       <c r="I840" s="1"/>
     </row>
-    <row r="841" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -10373,7 +10694,7 @@
       <c r="H841" s="1"/>
       <c r="I841" s="1"/>
     </row>
-    <row r="842" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -10384,7 +10705,7 @@
       <c r="H842" s="1"/>
       <c r="I842" s="1"/>
     </row>
-    <row r="843" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -10395,7 +10716,7 @@
       <c r="H843" s="1"/>
       <c r="I843" s="1"/>
     </row>
-    <row r="844" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -10406,7 +10727,7 @@
       <c r="H844" s="1"/>
       <c r="I844" s="1"/>
     </row>
-    <row r="845" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -10417,7 +10738,7 @@
       <c r="H845" s="1"/>
       <c r="I845" s="1"/>
     </row>
-    <row r="846" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -10428,7 +10749,7 @@
       <c r="H846" s="1"/>
       <c r="I846" s="1"/>
     </row>
-    <row r="847" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -10439,7 +10760,7 @@
       <c r="H847" s="1"/>
       <c r="I847" s="1"/>
     </row>
-    <row r="848" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -10450,7 +10771,7 @@
       <c r="H848" s="1"/>
       <c r="I848" s="1"/>
     </row>
-    <row r="849" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -10461,7 +10782,7 @@
       <c r="H849" s="1"/>
       <c r="I849" s="1"/>
     </row>
-    <row r="850" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -10472,7 +10793,7 @@
       <c r="H850" s="1"/>
       <c r="I850" s="1"/>
     </row>
-    <row r="851" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -10483,7 +10804,7 @@
       <c r="H851" s="1"/>
       <c r="I851" s="1"/>
     </row>
-    <row r="852" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -10494,7 +10815,7 @@
       <c r="H852" s="1"/>
       <c r="I852" s="1"/>
     </row>
-    <row r="853" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -10505,7 +10826,7 @@
       <c r="H853" s="1"/>
       <c r="I853" s="1"/>
     </row>
-    <row r="854" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -10516,7 +10837,7 @@
       <c r="H854" s="1"/>
       <c r="I854" s="1"/>
     </row>
-    <row r="855" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -10527,7 +10848,7 @@
       <c r="H855" s="1"/>
       <c r="I855" s="1"/>
     </row>
-    <row r="856" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -10538,7 +10859,7 @@
       <c r="H856" s="1"/>
       <c r="I856" s="1"/>
     </row>
-    <row r="857" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -10549,7 +10870,7 @@
       <c r="H857" s="1"/>
       <c r="I857" s="1"/>
     </row>
-    <row r="858" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -10560,7 +10881,7 @@
       <c r="H858" s="1"/>
       <c r="I858" s="1"/>
     </row>
-    <row r="859" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -10571,7 +10892,7 @@
       <c r="H859" s="1"/>
       <c r="I859" s="1"/>
     </row>
-    <row r="860" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -10582,7 +10903,7 @@
       <c r="H860" s="1"/>
       <c r="I860" s="1"/>
     </row>
-    <row r="861" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -10593,7 +10914,7 @@
       <c r="H861" s="1"/>
       <c r="I861" s="1"/>
     </row>
-    <row r="862" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -10604,7 +10925,7 @@
       <c r="H862" s="1"/>
       <c r="I862" s="1"/>
     </row>
-    <row r="863" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -10615,7 +10936,7 @@
       <c r="H863" s="1"/>
       <c r="I863" s="1"/>
     </row>
-    <row r="864" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -10626,7 +10947,7 @@
       <c r="H864" s="1"/>
       <c r="I864" s="1"/>
     </row>
-    <row r="865" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -10637,7 +10958,7 @@
       <c r="H865" s="1"/>
       <c r="I865" s="1"/>
     </row>
-    <row r="866" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -10648,7 +10969,7 @@
       <c r="H866" s="1"/>
       <c r="I866" s="1"/>
     </row>
-    <row r="867" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -10659,7 +10980,7 @@
       <c r="H867" s="1"/>
       <c r="I867" s="1"/>
     </row>
-    <row r="868" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -10670,7 +10991,7 @@
       <c r="H868" s="1"/>
       <c r="I868" s="1"/>
     </row>
-    <row r="869" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -10681,7 +11002,7 @@
       <c r="H869" s="1"/>
       <c r="I869" s="1"/>
     </row>
-    <row r="870" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -10692,7 +11013,7 @@
       <c r="H870" s="1"/>
       <c r="I870" s="1"/>
     </row>
-    <row r="871" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -10703,7 +11024,7 @@
       <c r="H871" s="1"/>
       <c r="I871" s="1"/>
     </row>
-    <row r="872" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -10714,7 +11035,7 @@
       <c r="H872" s="1"/>
       <c r="I872" s="1"/>
     </row>
-    <row r="873" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -10725,7 +11046,7 @@
       <c r="H873" s="1"/>
       <c r="I873" s="1"/>
     </row>
-    <row r="874" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -10736,7 +11057,7 @@
       <c r="H874" s="1"/>
       <c r="I874" s="1"/>
     </row>
-    <row r="875" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -10747,7 +11068,7 @@
       <c r="H875" s="1"/>
       <c r="I875" s="1"/>
     </row>
-    <row r="876" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -10758,7 +11079,7 @@
       <c r="H876" s="1"/>
       <c r="I876" s="1"/>
     </row>
-    <row r="877" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -10769,7 +11090,7 @@
       <c r="H877" s="1"/>
       <c r="I877" s="1"/>
     </row>
-    <row r="878" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -10780,7 +11101,7 @@
       <c r="H878" s="1"/>
       <c r="I878" s="1"/>
     </row>
-    <row r="879" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -10791,7 +11112,7 @@
       <c r="H879" s="1"/>
       <c r="I879" s="1"/>
     </row>
-    <row r="880" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -10802,7 +11123,7 @@
       <c r="H880" s="1"/>
       <c r="I880" s="1"/>
     </row>
-    <row r="881" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -10813,7 +11134,7 @@
       <c r="H881" s="1"/>
       <c r="I881" s="1"/>
     </row>
-    <row r="882" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -10824,7 +11145,7 @@
       <c r="H882" s="1"/>
       <c r="I882" s="1"/>
     </row>
-    <row r="883" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -10835,7 +11156,7 @@
       <c r="H883" s="1"/>
       <c r="I883" s="1"/>
     </row>
-    <row r="884" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -10846,7 +11167,7 @@
       <c r="H884" s="1"/>
       <c r="I884" s="1"/>
     </row>
-    <row r="885" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -10857,7 +11178,7 @@
       <c r="H885" s="1"/>
       <c r="I885" s="1"/>
     </row>
-    <row r="886" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -10868,7 +11189,7 @@
       <c r="H886" s="1"/>
       <c r="I886" s="1"/>
     </row>
-    <row r="887" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -10879,7 +11200,7 @@
       <c r="H887" s="1"/>
       <c r="I887" s="1"/>
     </row>
-    <row r="888" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -10890,7 +11211,7 @@
       <c r="H888" s="1"/>
       <c r="I888" s="1"/>
     </row>
-    <row r="889" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -10901,7 +11222,7 @@
       <c r="H889" s="1"/>
       <c r="I889" s="1"/>
     </row>
-    <row r="890" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -10912,7 +11233,7 @@
       <c r="H890" s="1"/>
       <c r="I890" s="1"/>
     </row>
-    <row r="891" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -10923,7 +11244,7 @@
       <c r="H891" s="1"/>
       <c r="I891" s="1"/>
     </row>
-    <row r="892" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -10934,7 +11255,7 @@
       <c r="H892" s="1"/>
       <c r="I892" s="1"/>
     </row>
-    <row r="893" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -10945,7 +11266,7 @@
       <c r="H893" s="1"/>
       <c r="I893" s="1"/>
     </row>
-    <row r="894" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -10956,7 +11277,7 @@
       <c r="H894" s="1"/>
       <c r="I894" s="1"/>
     </row>
-    <row r="895" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -10967,7 +11288,7 @@
       <c r="H895" s="1"/>
       <c r="I895" s="1"/>
     </row>
-    <row r="896" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -10978,7 +11299,7 @@
       <c r="H896" s="1"/>
       <c r="I896" s="1"/>
     </row>
-    <row r="897" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -10989,7 +11310,7 @@
       <c r="H897" s="1"/>
       <c r="I897" s="1"/>
     </row>
-    <row r="898" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -11000,7 +11321,7 @@
       <c r="H898" s="1"/>
       <c r="I898" s="1"/>
     </row>
-    <row r="899" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -11011,7 +11332,7 @@
       <c r="H899" s="1"/>
       <c r="I899" s="1"/>
     </row>
-    <row r="900" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -11022,7 +11343,7 @@
       <c r="H900" s="1"/>
       <c r="I900" s="1"/>
     </row>
-    <row r="901" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -11033,7 +11354,7 @@
       <c r="H901" s="1"/>
       <c r="I901" s="1"/>
     </row>
-    <row r="902" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -11044,7 +11365,7 @@
       <c r="H902" s="1"/>
       <c r="I902" s="1"/>
     </row>
-    <row r="903" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -11055,7 +11376,7 @@
       <c r="H903" s="1"/>
       <c r="I903" s="1"/>
     </row>
-    <row r="904" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -11066,7 +11387,7 @@
       <c r="H904" s="1"/>
       <c r="I904" s="1"/>
     </row>
-    <row r="905" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -11077,7 +11398,7 @@
       <c r="H905" s="1"/>
       <c r="I905" s="1"/>
     </row>
-    <row r="906" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -11088,7 +11409,7 @@
       <c r="H906" s="1"/>
       <c r="I906" s="1"/>
     </row>
-    <row r="907" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -11099,7 +11420,7 @@
       <c r="H907" s="1"/>
       <c r="I907" s="1"/>
     </row>
-    <row r="908" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -11110,7 +11431,7 @@
       <c r="H908" s="1"/>
       <c r="I908" s="1"/>
     </row>
-    <row r="909" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -11121,7 +11442,7 @@
       <c r="H909" s="1"/>
       <c r="I909" s="1"/>
     </row>
-    <row r="910" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -11132,7 +11453,7 @@
       <c r="H910" s="1"/>
       <c r="I910" s="1"/>
     </row>
-    <row r="911" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -11143,7 +11464,7 @@
       <c r="H911" s="1"/>
       <c r="I911" s="1"/>
     </row>
-    <row r="912" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -11154,7 +11475,7 @@
       <c r="H912" s="1"/>
       <c r="I912" s="1"/>
     </row>
-    <row r="913" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -11165,7 +11486,7 @@
       <c r="H913" s="1"/>
       <c r="I913" s="1"/>
     </row>
-    <row r="914" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -11176,7 +11497,7 @@
       <c r="H914" s="1"/>
       <c r="I914" s="1"/>
     </row>
-    <row r="915" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -11187,7 +11508,7 @@
       <c r="H915" s="1"/>
       <c r="I915" s="1"/>
     </row>
-    <row r="916" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -11198,7 +11519,7 @@
       <c r="H916" s="1"/>
       <c r="I916" s="1"/>
     </row>
-    <row r="917" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -11209,7 +11530,7 @@
       <c r="H917" s="1"/>
       <c r="I917" s="1"/>
     </row>
-    <row r="918" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -11220,7 +11541,7 @@
       <c r="H918" s="1"/>
       <c r="I918" s="1"/>
     </row>
-    <row r="919" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -11231,7 +11552,7 @@
       <c r="H919" s="1"/>
       <c r="I919" s="1"/>
     </row>
-    <row r="920" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -11242,7 +11563,7 @@
       <c r="H920" s="1"/>
       <c r="I920" s="1"/>
     </row>
-    <row r="921" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -11253,7 +11574,7 @@
       <c r="H921" s="1"/>
       <c r="I921" s="1"/>
     </row>
-    <row r="922" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -11264,7 +11585,7 @@
       <c r="H922" s="1"/>
       <c r="I922" s="1"/>
     </row>
-    <row r="923" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -11275,7 +11596,7 @@
       <c r="H923" s="1"/>
       <c r="I923" s="1"/>
     </row>
-    <row r="924" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -11286,7 +11607,7 @@
       <c r="H924" s="1"/>
       <c r="I924" s="1"/>
     </row>
-    <row r="925" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -11297,7 +11618,7 @@
       <c r="H925" s="1"/>
       <c r="I925" s="1"/>
     </row>
-    <row r="926" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -11308,7 +11629,7 @@
       <c r="H926" s="1"/>
       <c r="I926" s="1"/>
     </row>
-    <row r="927" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -11319,7 +11640,7 @@
       <c r="H927" s="1"/>
       <c r="I927" s="1"/>
     </row>
-    <row r="928" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -11330,7 +11651,7 @@
       <c r="H928" s="1"/>
       <c r="I928" s="1"/>
     </row>
-    <row r="929" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -11341,7 +11662,7 @@
       <c r="H929" s="1"/>
       <c r="I929" s="1"/>
     </row>
-    <row r="930" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -11352,7 +11673,7 @@
       <c r="H930" s="1"/>
       <c r="I930" s="1"/>
     </row>
-    <row r="931" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -11363,7 +11684,7 @@
       <c r="H931" s="1"/>
       <c r="I931" s="1"/>
     </row>
-    <row r="932" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -11374,7 +11695,7 @@
       <c r="H932" s="1"/>
       <c r="I932" s="1"/>
     </row>
-    <row r="933" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -11385,7 +11706,7 @@
       <c r="H933" s="1"/>
       <c r="I933" s="1"/>
     </row>
-    <row r="934" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -11396,7 +11717,7 @@
       <c r="H934" s="1"/>
       <c r="I934" s="1"/>
     </row>
-    <row r="935" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -11407,7 +11728,7 @@
       <c r="H935" s="1"/>
       <c r="I935" s="1"/>
     </row>
-    <row r="936" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -11418,7 +11739,7 @@
       <c r="H936" s="1"/>
       <c r="I936" s="1"/>
     </row>
-    <row r="937" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -11429,7 +11750,7 @@
       <c r="H937" s="1"/>
       <c r="I937" s="1"/>
     </row>
-    <row r="938" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -11440,7 +11761,7 @@
       <c r="H938" s="1"/>
       <c r="I938" s="1"/>
     </row>
-    <row r="939" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -11451,7 +11772,7 @@
       <c r="H939" s="1"/>
       <c r="I939" s="1"/>
     </row>
-    <row r="940" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -11462,7 +11783,7 @@
       <c r="H940" s="1"/>
       <c r="I940" s="1"/>
     </row>
-    <row r="941" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -11473,7 +11794,7 @@
       <c r="H941" s="1"/>
       <c r="I941" s="1"/>
     </row>
-    <row r="942" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -11484,7 +11805,7 @@
       <c r="H942" s="1"/>
       <c r="I942" s="1"/>
     </row>
-    <row r="943" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -11495,7 +11816,7 @@
       <c r="H943" s="1"/>
       <c r="I943" s="1"/>
     </row>
-    <row r="944" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -11506,7 +11827,7 @@
       <c r="H944" s="1"/>
       <c r="I944" s="1"/>
     </row>
-    <row r="945" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -11517,7 +11838,7 @@
       <c r="H945" s="1"/>
       <c r="I945" s="1"/>
     </row>
-    <row r="946" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -11528,7 +11849,7 @@
       <c r="H946" s="1"/>
       <c r="I946" s="1"/>
     </row>
-    <row r="947" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -11539,7 +11860,7 @@
       <c r="H947" s="1"/>
       <c r="I947" s="1"/>
     </row>
-    <row r="948" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -11550,7 +11871,7 @@
       <c r="H948" s="1"/>
       <c r="I948" s="1"/>
     </row>
-    <row r="949" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -11561,7 +11882,7 @@
       <c r="H949" s="1"/>
       <c r="I949" s="1"/>
     </row>
-    <row r="950" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -11572,7 +11893,7 @@
       <c r="H950" s="1"/>
       <c r="I950" s="1"/>
     </row>
-    <row r="951" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -11583,7 +11904,7 @@
       <c r="H951" s="1"/>
       <c r="I951" s="1"/>
     </row>
-    <row r="952" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -11594,7 +11915,7 @@
       <c r="H952" s="1"/>
       <c r="I952" s="1"/>
     </row>
-    <row r="953" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -11605,7 +11926,7 @@
       <c r="H953" s="1"/>
       <c r="I953" s="1"/>
     </row>
-    <row r="954" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -11616,7 +11937,7 @@
       <c r="H954" s="1"/>
       <c r="I954" s="1"/>
     </row>
-    <row r="955" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -11627,7 +11948,7 @@
       <c r="H955" s="1"/>
       <c r="I955" s="1"/>
     </row>
-    <row r="956" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -11638,7 +11959,7 @@
       <c r="H956" s="1"/>
       <c r="I956" s="1"/>
     </row>
-    <row r="957" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -11649,7 +11970,7 @@
       <c r="H957" s="1"/>
       <c r="I957" s="1"/>
     </row>
-    <row r="958" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -11660,7 +11981,7 @@
       <c r="H958" s="1"/>
       <c r="I958" s="1"/>
     </row>
-    <row r="959" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -11671,7 +11992,7 @@
       <c r="H959" s="1"/>
       <c r="I959" s="1"/>
     </row>
-    <row r="960" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -11682,7 +12003,7 @@
       <c r="H960" s="1"/>
       <c r="I960" s="1"/>
     </row>
-    <row r="961" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -11693,7 +12014,7 @@
       <c r="H961" s="1"/>
       <c r="I961" s="1"/>
     </row>
-    <row r="962" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -11704,7 +12025,7 @@
       <c r="H962" s="1"/>
       <c r="I962" s="1"/>
     </row>
-    <row r="963" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -11715,7 +12036,7 @@
       <c r="H963" s="1"/>
       <c r="I963" s="1"/>
     </row>
-    <row r="964" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -11726,7 +12047,7 @@
       <c r="H964" s="1"/>
       <c r="I964" s="1"/>
     </row>
-    <row r="965" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -11737,7 +12058,7 @@
       <c r="H965" s="1"/>
       <c r="I965" s="1"/>
     </row>
-    <row r="966" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -11748,7 +12069,7 @@
       <c r="H966" s="1"/>
       <c r="I966" s="1"/>
     </row>
-    <row r="967" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -11759,7 +12080,7 @@
       <c r="H967" s="1"/>
       <c r="I967" s="1"/>
     </row>
-    <row r="968" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -11770,7 +12091,7 @@
       <c r="H968" s="1"/>
       <c r="I968" s="1"/>
     </row>
-    <row r="969" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -11781,7 +12102,7 @@
       <c r="H969" s="1"/>
       <c r="I969" s="1"/>
     </row>
-    <row r="970" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -11792,7 +12113,7 @@
       <c r="H970" s="1"/>
       <c r="I970" s="1"/>
     </row>
-    <row r="971" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -11803,7 +12124,7 @@
       <c r="H971" s="1"/>
       <c r="I971" s="1"/>
     </row>
-    <row r="972" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -11814,7 +12135,7 @@
       <c r="H972" s="1"/>
       <c r="I972" s="1"/>
     </row>
-    <row r="973" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -11825,7 +12146,7 @@
       <c r="H973" s="1"/>
       <c r="I973" s="1"/>
     </row>
-    <row r="974" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -11836,7 +12157,7 @@
       <c r="H974" s="1"/>
       <c r="I974" s="1"/>
     </row>
-    <row r="975" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -11847,7 +12168,7 @@
       <c r="H975" s="1"/>
       <c r="I975" s="1"/>
     </row>
-    <row r="976" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -11858,7 +12179,7 @@
       <c r="H976" s="1"/>
       <c r="I976" s="1"/>
     </row>
-    <row r="977" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -11869,7 +12190,7 @@
       <c r="H977" s="1"/>
       <c r="I977" s="1"/>
     </row>
-    <row r="978" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -11880,7 +12201,7 @@
       <c r="H978" s="1"/>
       <c r="I978" s="1"/>
     </row>
-    <row r="979" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -11891,7 +12212,7 @@
       <c r="H979" s="1"/>
       <c r="I979" s="1"/>
     </row>
-    <row r="980" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -11902,7 +12223,7 @@
       <c r="H980" s="1"/>
       <c r="I980" s="1"/>
     </row>
-    <row r="981" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -11913,7 +12234,7 @@
       <c r="H981" s="1"/>
       <c r="I981" s="1"/>
     </row>
-    <row r="982" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -11924,7 +12245,7 @@
       <c r="H982" s="1"/>
       <c r="I982" s="1"/>
     </row>
-    <row r="983" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -11935,7 +12256,7 @@
       <c r="H983" s="1"/>
       <c r="I983" s="1"/>
     </row>
-    <row r="984" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -11946,7 +12267,7 @@
       <c r="H984" s="1"/>
       <c r="I984" s="1"/>
     </row>
-    <row r="985" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -11957,7 +12278,7 @@
       <c r="H985" s="1"/>
       <c r="I985" s="1"/>
     </row>
-    <row r="986" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -11968,7 +12289,7 @@
       <c r="H986" s="1"/>
       <c r="I986" s="1"/>
     </row>
-    <row r="987" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -11979,7 +12300,7 @@
       <c r="H987" s="1"/>
       <c r="I987" s="1"/>
     </row>
-    <row r="988" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -11990,7 +12311,7 @@
       <c r="H988" s="1"/>
       <c r="I988" s="1"/>
     </row>
-    <row r="989" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -12001,7 +12322,7 @@
       <c r="H989" s="1"/>
       <c r="I989" s="1"/>
     </row>
-    <row r="990" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -12012,7 +12333,7 @@
       <c r="H990" s="1"/>
       <c r="I990" s="1"/>
     </row>
-    <row r="991" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -12023,7 +12344,7 @@
       <c r="H991" s="1"/>
       <c r="I991" s="1"/>
     </row>
-    <row r="992" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -12034,7 +12355,7 @@
       <c r="H992" s="1"/>
       <c r="I992" s="1"/>
     </row>
-    <row r="993" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -12045,7 +12366,7 @@
       <c r="H993" s="1"/>
       <c r="I993" s="1"/>
     </row>
-    <row r="994" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -12056,7 +12377,7 @@
       <c r="H994" s="1"/>
       <c r="I994" s="1"/>
     </row>
-    <row r="995" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -12067,7 +12388,7 @@
       <c r="H995" s="1"/>
       <c r="I995" s="1"/>
     </row>
-    <row r="996" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -12078,7 +12399,7 @@
       <c r="H996" s="1"/>
       <c r="I996" s="1"/>
     </row>
-    <row r="997" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -12089,7 +12410,7 @@
       <c r="H997" s="1"/>
       <c r="I997" s="1"/>
     </row>
-    <row r="998" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -12100,7 +12421,7 @@
       <c r="H998" s="1"/>
       <c r="I998" s="1"/>
     </row>
-    <row r="999" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -12111,7 +12432,7 @@
       <c r="H999" s="1"/>
       <c r="I999" s="1"/>
     </row>
-    <row r="1000" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
